--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf8-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf8-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4582203333333334</v>
+        <v>0.7103813333333333</v>
       </c>
       <c r="H2">
-        <v>1.374661</v>
+        <v>2.131144</v>
       </c>
       <c r="I2">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="J2">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7050016666666666</v>
+        <v>1.414593</v>
       </c>
       <c r="N2">
-        <v>2.115005</v>
+        <v>4.243779</v>
       </c>
       <c r="O2">
-        <v>0.2162043499394578</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="P2">
-        <v>0.2162043499394578</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="Q2">
-        <v>0.3230460987005556</v>
+        <v>1.004900461464</v>
       </c>
       <c r="R2">
-        <v>2.907414888305</v>
+        <v>9.044104153175999</v>
       </c>
       <c r="S2">
-        <v>0.1445379199878444</v>
+        <v>0.2635851522382679</v>
       </c>
       <c r="T2">
-        <v>0.1445379199878445</v>
+        <v>0.263585152238268</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4582203333333334</v>
+        <v>0.7103813333333333</v>
       </c>
       <c r="H3">
-        <v>1.374661</v>
+        <v>2.131144</v>
       </c>
       <c r="I3">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="J3">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>7.012461999999999</v>
       </c>
       <c r="O3">
-        <v>0.716842176819984</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="P3">
-        <v>0.716842176819984</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="Q3">
-        <v>1.071084225042445</v>
+        <v>1.660507368503111</v>
       </c>
       <c r="R3">
-        <v>9.639758025381999</v>
+        <v>14.944566316528</v>
       </c>
       <c r="S3">
-        <v>0.4792266077261281</v>
+        <v>0.4355506881567275</v>
       </c>
       <c r="T3">
-        <v>0.4792266077261281</v>
+        <v>0.4355506881567275</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +652,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4582203333333334</v>
+        <v>0.7103813333333333</v>
       </c>
       <c r="H4">
-        <v>1.374661</v>
+        <v>2.131144</v>
       </c>
       <c r="I4">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="J4">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +676,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2112013333333334</v>
+        <v>0.314161</v>
       </c>
       <c r="N4">
-        <v>0.6336040000000001</v>
+        <v>0.942483</v>
       </c>
       <c r="O4">
-        <v>0.0647695589083904</v>
+        <v>0.07726078563626818</v>
       </c>
       <c r="P4">
-        <v>0.06476955890839041</v>
+        <v>0.07726078563626819</v>
       </c>
       <c r="Q4">
-        <v>0.09677674536044446</v>
+        <v>0.2231741100613333</v>
       </c>
       <c r="R4">
-        <v>0.8709907082440002</v>
+        <v>2.008566990552</v>
       </c>
       <c r="S4">
-        <v>0.04330004149209018</v>
+        <v>0.0585385160341713</v>
       </c>
       <c r="T4">
-        <v>0.04330004149209019</v>
+        <v>0.0585385160341713</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -714,55 +711,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4582203333333334</v>
+        <v>0.2272</v>
       </c>
       <c r="H5">
-        <v>1.374661</v>
+        <v>0.6816</v>
       </c>
       <c r="I5">
-        <v>0.6685245695950076</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="J5">
-        <v>0.6685245695950076</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.007121333333333333</v>
+        <v>1.414593</v>
       </c>
       <c r="N5">
-        <v>0.021364</v>
+        <v>4.243779</v>
       </c>
       <c r="O5">
-        <v>0.002183914332167809</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="P5">
-        <v>0.002183914332167809</v>
+        <v>0.3478871232761722</v>
       </c>
       <c r="Q5">
-        <v>0.003263139733777778</v>
+        <v>0.3213955296</v>
       </c>
       <c r="R5">
-        <v>0.029368257604</v>
+        <v>2.8925597664</v>
       </c>
       <c r="S5">
-        <v>0.001460000388944853</v>
+        <v>0.08430197103790425</v>
       </c>
       <c r="T5">
-        <v>0.001460000388944853</v>
+        <v>0.08430197103790427</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +773,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,40 +788,40 @@
         <v>0.6816</v>
       </c>
       <c r="I6">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="J6">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7050016666666666</v>
+        <v>2.337487333333333</v>
       </c>
       <c r="N6">
-        <v>2.115005</v>
+        <v>7.012461999999999</v>
       </c>
       <c r="O6">
-        <v>0.2162043499394578</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="P6">
-        <v>0.2162043499394578</v>
+        <v>0.5748520910875596</v>
       </c>
       <c r="Q6">
-        <v>0.1601763786666666</v>
+        <v>0.5310771221333332</v>
       </c>
       <c r="R6">
-        <v>1.441587408</v>
+        <v>4.779694099199999</v>
       </c>
       <c r="S6">
-        <v>0.07166642995161335</v>
+        <v>0.1393014029308322</v>
       </c>
       <c r="T6">
-        <v>0.07166642995161336</v>
+        <v>0.1393014029308322</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +835,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,10 +850,10 @@
         <v>0.6816</v>
       </c>
       <c r="I7">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="J7">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,152 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.337487333333333</v>
+        <v>0.314161</v>
       </c>
       <c r="N7">
-        <v>7.012461999999999</v>
+        <v>0.942483</v>
       </c>
       <c r="O7">
-        <v>0.716842176819984</v>
+        <v>0.07726078563626818</v>
       </c>
       <c r="P7">
-        <v>0.716842176819984</v>
+        <v>0.07726078563626819</v>
       </c>
       <c r="Q7">
-        <v>0.5310771221333332</v>
+        <v>0.07137737919999999</v>
       </c>
       <c r="R7">
-        <v>4.779694099199999</v>
+        <v>0.6423964127999999</v>
       </c>
       <c r="S7">
-        <v>0.2376155690938558</v>
+        <v>0.01872226960209688</v>
       </c>
       <c r="T7">
-        <v>0.2376155690938558</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.2272</v>
-      </c>
-      <c r="H8">
-        <v>0.6816</v>
-      </c>
-      <c r="I8">
-        <v>0.3314754304049923</v>
-      </c>
-      <c r="J8">
-        <v>0.3314754304049923</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.2112013333333334</v>
-      </c>
-      <c r="N8">
-        <v>0.6336040000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.0647695589083904</v>
-      </c>
-      <c r="P8">
-        <v>0.06476955890839041</v>
-      </c>
-      <c r="Q8">
-        <v>0.04798494293333334</v>
-      </c>
-      <c r="R8">
-        <v>0.4318644864</v>
-      </c>
-      <c r="S8">
-        <v>0.02146951741630021</v>
-      </c>
-      <c r="T8">
-        <v>0.02146951741630022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.2272</v>
-      </c>
-      <c r="H9">
-        <v>0.6816</v>
-      </c>
-      <c r="I9">
-        <v>0.3314754304049923</v>
-      </c>
-      <c r="J9">
-        <v>0.3314754304049923</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.007121333333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.021364</v>
-      </c>
-      <c r="O9">
-        <v>0.002183914332167809</v>
-      </c>
-      <c r="P9">
-        <v>0.002183914332167809</v>
-      </c>
-      <c r="Q9">
-        <v>0.001617966933333333</v>
-      </c>
-      <c r="R9">
-        <v>0.0145617024</v>
-      </c>
-      <c r="S9">
-        <v>0.0007239139432229557</v>
-      </c>
-      <c r="T9">
-        <v>0.0007239139432229558</v>
+        <v>0.01872226960209689</v>
       </c>
     </row>
   </sheetData>
